--- a/biology/Zoologie/Aculithus_bijiashanicus/Aculithus_bijiashanicus.xlsx
+++ b/biology/Zoologie/Aculithus_bijiashanicus/Aculithus_bijiashanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aculithus bijiashanicus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aculithus bijiashanicus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Jiangxi en Chine[1],[2]. Elle se rencontre vers Jinggangshan.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Jiangxi en Chine,. Elle se rencontre vers Jinggangshan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,56 mm et la femelle paratype 2,62 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,56 mm et la femelle paratype 2,62 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia bijiashanica par Liu en 2020. Elle est placée dans le genre Aculithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia bijiashanica par Liu en 2020. Elle est placée dans le genre Aculithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Bijiashan.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liu, Luo, Ying, Xiao, Xu &amp; Xiao, 2020 : « A survey of Phrurolithidae spiders from Jinggang Mountain National Nature Reserve, Jiangxi Province, China. » ZooKeys, no 946, p. 1-37 (texte intégral).</t>
         </is>
